--- a/export/TUGAS.xlsx
+++ b/export/TUGAS.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41938.54</v>
+        <v>20969.27</v>
       </c>
     </row>
     <row r="4">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62907.81</v>
+        <v>20969.27</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85680.73</v>
+        <v>22772.92</v>
       </c>
     </row>
     <row r="6">
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110171.29</v>
+        <v>24490.56</v>
       </c>
     </row>
     <row r="7">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>135504.29</v>
+        <v>25333</v>
       </c>
     </row>
     <row r="8">
@@ -495,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>151239.65</v>
+        <v>15735.36</v>
       </c>
     </row>
     <row r="9">
